--- a/ms excel/1.2.xlsx
+++ b/ms excel/1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WDPF PC-07\Desktop\isdb\cf\ms excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\html-70\html-70\ms excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A94770-5794-4670-B33F-9EA2D47F1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53F9B2-B870-4AA2-80E4-EB27F342981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{82E023DE-8319-4E57-A4B2-42C5211A4FCF}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,8 +579,8 @@
         <v>50000</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>IF(E2&gt;50000,"OK","NOT OK")</f>
-        <v>NOT OK</v>
+        <f>IF(E2&gt;=50000,"OK","NOT OK")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>78000</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F10" si="0">IF(E3&gt;50000,"OK","NOT OK")</f>
+        <f t="shared" ref="F3:F10" si="0">IF(E3&gt;=50000,"OK","NOT OK")</f>
         <v>OK</v>
       </c>
     </row>
